--- a/DIS.xlsx
+++ b/DIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FAD65C-9957-4310-969C-8350ED55BB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B88BF2-1051-487D-841A-4D578B33FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{1B5A1D5B-5472-4AA4-99C4-18D07ACE1CA9}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="668">
   <si>
     <t>Walt Disney Company (DIS)</t>
   </si>
@@ -2066,9 +2066,6 @@
     <t>Q425</t>
   </si>
   <si>
-    <t>FQ225</t>
-  </si>
-  <si>
     <t>Shares outstanding</t>
   </si>
   <si>
@@ -2082,6 +2079,9 @@
   </si>
   <si>
     <t>Hulu RPC</t>
+  </si>
+  <si>
+    <t>FQ325</t>
   </si>
 </sst>
 </file>
@@ -2942,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CD49C-C17C-400F-AC7B-86170714D797}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,7 +2966,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="61">
-        <v>102.4</v>
+        <v>115.68</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2974,10 +2974,10 @@
         <v>6</v>
       </c>
       <c r="K3" s="62">
-        <v>1797.7463110000001</v>
+        <v>1797.933833</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K4" s="61">
         <f>K3*K2</f>
-        <v>184089.22224640002</v>
+        <v>207984.98580144002</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -3007,10 +3007,10 @@
         <v>9</v>
       </c>
       <c r="K5" s="61">
-        <v>5852</v>
+        <v>5367</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3021,11 +3021,10 @@
         <v>8</v>
       </c>
       <c r="K6" s="61">
-        <f>36443+6446</f>
-        <v>42889</v>
+        <v>36531</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3034,7 +3033,7 @@
       </c>
       <c r="K7" s="61">
         <f>+K4+K6-K5</f>
-        <v>221126.22224640002</v>
+        <v>239148.98580144002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5099,7 +5098,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5117,27 +5116,13 @@
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>191</v>
-      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -5218,7 +5203,7 @@
     <row r="3" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -5228,13 +5213,17 @@
       <c r="H3" s="23">
         <v>124.6</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="23">
+        <v>120.8</v>
+      </c>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23">
         <v>126</v>
       </c>
-      <c r="M3" s="23"/>
+      <c r="M3" s="23">
+        <v>127.8</v>
+      </c>
       <c r="N3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
@@ -5255,7 +5244,7 @@
     <row r="4" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -5265,13 +5254,17 @@
       <c r="H4" s="23">
         <v>7.55</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="23">
+        <v>7.09</v>
+      </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23">
         <v>7.77</v>
       </c>
-      <c r="M4" s="23"/>
+      <c r="M4" s="23">
+        <v>7.86</v>
+      </c>
       <c r="N4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
@@ -5292,7 +5285,7 @@
     <row r="5" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -5302,13 +5295,17 @@
       <c r="H5" s="23">
         <v>12.52</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="23">
+        <v>51.1</v>
+      </c>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23">
         <v>54.7</v>
       </c>
-      <c r="M5" s="23"/>
+      <c r="M5" s="23">
+        <v>55.5</v>
+      </c>
       <c r="N5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
@@ -5329,7 +5326,7 @@
     <row r="6" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -5337,13 +5334,17 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="23">
+        <v>12.73</v>
+      </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23">
         <v>12.36</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="23">
+        <v>12.4</v>
+      </c>
       <c r="N6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
@@ -5404,13 +5405,17 @@
       <c r="H8" s="64">
         <v>9796</v>
       </c>
-      <c r="I8" s="64"/>
+      <c r="I8" s="64">
+        <v>10580</v>
+      </c>
       <c r="J8" s="64"/>
       <c r="K8" s="64"/>
       <c r="L8" s="64">
         <v>10682</v>
       </c>
-      <c r="M8" s="64"/>
+      <c r="M8" s="64">
+        <v>10704</v>
+      </c>
       <c r="N8" s="64"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
@@ -5441,13 +5446,17 @@
       <c r="H9" s="64">
         <v>4312</v>
       </c>
-      <c r="I9" s="64"/>
+      <c r="I9" s="64">
+        <v>4558</v>
+      </c>
       <c r="J9" s="64"/>
       <c r="K9" s="64"/>
       <c r="L9" s="64">
         <v>4534</v>
       </c>
-      <c r="M9" s="64"/>
+      <c r="M9" s="64">
+        <v>4308</v>
+      </c>
       <c r="N9" s="64"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -5478,13 +5487,19 @@
       <c r="H10" s="64">
         <v>8393</v>
       </c>
-      <c r="I10" s="64"/>
+      <c r="I10" s="64">
+        <f>8386-369</f>
+        <v>8017</v>
+      </c>
       <c r="J10" s="64"/>
       <c r="K10" s="64"/>
       <c r="L10" s="64">
         <v>8889</v>
       </c>
-      <c r="M10" s="64"/>
+      <c r="M10" s="64">
+        <f>9086-448</f>
+        <v>8638</v>
+      </c>
       <c r="N10" s="64"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
@@ -5540,7 +5555,9 @@
       <c r="L11" s="64">
         <v>21258</v>
       </c>
-      <c r="M11" s="64"/>
+      <c r="M11" s="64">
+        <v>21214</v>
+      </c>
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
       <c r="P11" s="64">
@@ -5620,7 +5637,9 @@
       <c r="L12" s="64">
         <v>2363</v>
       </c>
-      <c r="M12" s="64"/>
+      <c r="M12" s="64">
+        <v>2436</v>
+      </c>
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
       <c r="P12" s="64">
@@ -5708,7 +5727,7 @@
       </c>
       <c r="M13" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23650</v>
       </c>
       <c r="N13" s="65">
         <f t="shared" si="0"/>
@@ -5799,7 +5818,9 @@
       <c r="L14" s="64">
         <v>13378</v>
       </c>
-      <c r="M14" s="64"/>
+      <c r="M14" s="64">
+        <v>13034</v>
+      </c>
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
       <c r="P14" s="64">
@@ -5879,7 +5900,9 @@
       <c r="L15" s="64">
         <v>1432</v>
       </c>
-      <c r="M15" s="64"/>
+      <c r="M15" s="64">
+        <v>1498</v>
+      </c>
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
       <c r="P15" s="64">
@@ -5967,7 +5990,7 @@
       </c>
       <c r="M16" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14532</v>
       </c>
       <c r="N16" s="64">
         <f t="shared" si="2"/>
@@ -6066,7 +6089,7 @@
       </c>
       <c r="M17" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9118</v>
       </c>
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
@@ -6154,7 +6177,9 @@
       <c r="L18" s="64">
         <v>3981</v>
       </c>
-      <c r="M18" s="64"/>
+      <c r="M18" s="64">
+        <v>4141</v>
+      </c>
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
       <c r="P18" s="64">
@@ -6234,7 +6259,9 @@
       <c r="L19" s="64">
         <v>1324</v>
       </c>
-      <c r="M19" s="64"/>
+      <c r="M19" s="64">
+        <v>1332</v>
+      </c>
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
       <c r="P19" s="64">
@@ -6322,7 +6349,7 @@
       </c>
       <c r="M20" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5473</v>
       </c>
       <c r="N20" s="64">
         <f t="shared" si="6"/>
@@ -6421,7 +6448,7 @@
       </c>
       <c r="M21" s="64">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3645</v>
       </c>
       <c r="N21" s="64">
         <f t="shared" si="13"/>
@@ -6512,7 +6539,9 @@
       <c r="L22" s="64">
         <v>109</v>
       </c>
-      <c r="M22" s="64"/>
+      <c r="M22" s="64">
+        <v>185</v>
+      </c>
       <c r="N22" s="64"/>
       <c r="O22" s="64"/>
       <c r="P22" s="64">
@@ -6591,7 +6620,9 @@
       <c r="L23" s="64">
         <v>0</v>
       </c>
-      <c r="M23" s="64"/>
+      <c r="M23" s="64">
+        <v>0</v>
+      </c>
       <c r="N23" s="64"/>
       <c r="O23" s="64"/>
       <c r="P23" s="64">
@@ -6671,7 +6702,9 @@
       <c r="L24" s="64">
         <v>346</v>
       </c>
-      <c r="M24" s="64"/>
+      <c r="M24" s="64">
+        <v>324</v>
+      </c>
       <c r="N24" s="64"/>
       <c r="O24" s="64"/>
       <c r="P24" s="64">
@@ -6751,7 +6784,9 @@
       <c r="L25" s="64">
         <v>36</v>
       </c>
-      <c r="M25" s="64"/>
+      <c r="M25" s="64">
+        <v>75</v>
+      </c>
       <c r="N25" s="64"/>
       <c r="O25" s="64"/>
       <c r="P25" s="64">
@@ -6839,7 +6874,7 @@
       </c>
       <c r="M26" s="64">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3211</v>
       </c>
       <c r="N26" s="64">
         <f t="shared" si="15"/>
@@ -6930,7 +6965,9 @@
       <c r="L27" s="64">
         <v>-314</v>
       </c>
-      <c r="M27" s="64"/>
+      <c r="M27" s="64">
+        <v>-2732</v>
+      </c>
       <c r="N27" s="64"/>
       <c r="O27" s="64"/>
       <c r="P27" s="64">
@@ -7018,7 +7055,7 @@
       </c>
       <c r="M28" s="64">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5943</v>
       </c>
       <c r="N28" s="64">
         <f t="shared" si="18"/>
@@ -7107,7 +7144,9 @@
       <c r="L29" s="64">
         <v>0</v>
       </c>
-      <c r="M29" s="64"/>
+      <c r="M29" s="64">
+        <v>0</v>
+      </c>
       <c r="N29" s="64"/>
       <c r="O29" s="64"/>
       <c r="P29" s="64">
@@ -7195,7 +7234,7 @@
       </c>
       <c r="M30" s="64">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>5943</v>
       </c>
       <c r="N30" s="64">
         <f t="shared" si="27"/>
@@ -7286,7 +7325,9 @@
       <c r="L31" s="64">
         <v>126</v>
       </c>
-      <c r="M31" s="64"/>
+      <c r="M31" s="64">
+        <v>681</v>
+      </c>
       <c r="N31" s="64"/>
       <c r="O31" s="64"/>
       <c r="P31" s="64">
@@ -7375,7 +7416,7 @@
       </c>
       <c r="M32" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>5262</v>
       </c>
       <c r="N32" s="64">
         <f t="shared" si="34"/>
@@ -7511,9 +7552,9 @@
         <f t="shared" si="36"/>
         <v>1.8054024255788312</v>
       </c>
-      <c r="M34" s="67" t="e">
+      <c r="M34" s="67">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>2.9152354570637118</v>
       </c>
       <c r="N34" s="67" t="e">
         <f t="shared" si="36"/>
@@ -7568,7 +7609,7 @@
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C35" s="64">
         <v>1830.3159209999999</v>
@@ -7601,7 +7642,9 @@
       <c r="L35" s="64">
         <v>1814</v>
       </c>
-      <c r="M35" s="64"/>
+      <c r="M35" s="64">
+        <v>1805</v>
+      </c>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
       <c r="P35" s="64">
@@ -7724,7 +7767,7 @@
       </c>
       <c r="M37" s="9">
         <f t="shared" ref="M37:M39" si="43">M11/I11-1</f>
-        <v>-1</v>
+        <v>1.8141677865233241E-2</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" ref="N37:N39" si="44">N11/J11-1</f>
@@ -7818,7 +7861,7 @@
       </c>
       <c r="M38" s="9">
         <f t="shared" si="43"/>
-        <v>-1</v>
+        <v>5.045278137128073E-2</v>
       </c>
       <c r="N38" s="9">
         <f t="shared" si="44"/>
@@ -7912,7 +7955,7 @@
       </c>
       <c r="M39" s="14">
         <f t="shared" si="43"/>
-        <v>-1</v>
+        <v>2.1377672209026199E-2</v>
       </c>
       <c r="N39" s="14">
         <f t="shared" si="44"/>
@@ -8008,9 +8051,9 @@
         <f t="shared" si="47"/>
         <v>0.37068397779659423</v>
       </c>
-      <c r="M40" s="9" t="e">
+      <c r="M40" s="9">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>0.38559441878005091</v>
       </c>
       <c r="N40" s="9" t="e">
         <f t="shared" si="47"/>
@@ -8107,9 +8150,9 @@
         <f t="shared" si="49"/>
         <v>0.3939906898011003</v>
       </c>
-      <c r="M41" s="9" t="e">
+      <c r="M41" s="9">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>0.38505747126436779</v>
       </c>
       <c r="N41" s="9" t="e">
         <f t="shared" si="49"/>
@@ -8206,9 +8249,9 @@
         <f t="shared" si="51"/>
         <v>0.3730155370221413</v>
       </c>
-      <c r="M42" s="9" t="e">
+      <c r="M42" s="9">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>0.38553911205073998</v>
       </c>
       <c r="N42" s="9" t="e">
         <f t="shared" si="51"/>
@@ -8305,9 +8348,9 @@
         <f t="shared" si="54"/>
         <v>0.14842724694128107</v>
       </c>
-      <c r="M43" s="9" t="e">
+      <c r="M43" s="9">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
+        <v>0.15412262156448203</v>
       </c>
       <c r="N43" s="9" t="e">
         <f t="shared" si="54"/>
@@ -8404,9 +8447,9 @@
         <f t="shared" si="57"/>
         <v>-0.10171687722708131</v>
       </c>
-      <c r="M44" s="9" t="e">
+      <c r="M44" s="9">
         <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
+        <v>-0.85082528807225166</v>
       </c>
       <c r="N44" s="9" t="e">
         <f t="shared" si="57"/>
@@ -8503,9 +8546,9 @@
         <f t="shared" si="60"/>
         <v>0.14398204987087762</v>
       </c>
-      <c r="M45" s="9" t="e">
+      <c r="M45" s="9">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>0.25128964059196618</v>
       </c>
       <c r="N45" s="9" t="e">
         <f t="shared" si="60"/>
@@ -14283,8 +14326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AAA363-75D9-47B2-8E24-D134897828F4}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
